--- a/data/trans_orig/P14B24_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2015-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36F886A5-15A3-44A6-9232-1D9850C9E554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB674626-D03D-49DF-BA0E-64C0096EBC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DA1D18F-B087-4E5C-AA9B-5142D6DAC86C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62E2D424-A50E-4EFC-BFB3-757D0406D19D}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
     <t>Población cuyos trastornos de ansiedad le limita en 2015 (Tasa respuesta: 4,19%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>60,51%</t>
   </si>
   <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>72,5%</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>39,49%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>64,72%</t>
   </si>
   <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
   </si>
   <si>
     <t>54,94%</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
   </si>
   <si>
     <t>57,32%</t>
   </si>
   <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
   </si>
   <si>
     <t>35,28%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
   </si>
   <si>
     <t>45,06%</t>
   </si>
   <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>42,68%</t>
   </si>
   <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,31 +198,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>65,36%</t>
+    <t>59,88%</t>
   </si>
   <si>
     <t>43,8%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>33,56%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>34,64%</t>
+    <t>40,12%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -231,73 +231,73 @@
     <t>56,2%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>66,44%</t>
   </si>
   <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>58,2%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>63,42%</t>
   </si>
   <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
   </si>
   <si>
     <t>62,29%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
   </si>
   <si>
     <t>36,58%</t>
   </si>
   <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,217 +309,211 @@
     <t>77,61%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>70,99%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
+    <t>63,78%</t>
   </si>
   <si>
     <t>72,71%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
   <si>
     <t>29,01%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>36,22%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>61,89%</t>
   </si>
   <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
   </si>
   <si>
     <t>64,74%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
   </si>
   <si>
     <t>38,11%</t>
   </si>
   <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
   </si>
   <si>
     <t>56,06%</t>
   </si>
   <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
   </si>
   <si>
     <t>56,76%</t>
   </si>
   <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
   </si>
   <si>
     <t>56,48%</t>
   </si>
   <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>43,94%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
   </si>
   <si>
     <t>43,24%</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
   </si>
   <si>
     <t>43,52%</t>
   </si>
   <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
   </si>
   <si>
     <t>64,81%</t>
   </si>
   <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>66,34%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
   </si>
   <si>
     <t>65,88%</t>
   </si>
   <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>34,12%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879E94A8-DF16-4F49-B5CA-74314DE66314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07083340-CD1A-4666-89B9-A7B5414B64CC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F609D757-644F-4A74-A249-D2A671456457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E016F6-D2C0-4A8E-AD4E-01901EC73468}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1827,7 +1821,7 @@
         <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="M4" s="7">
         <v>160</v>
@@ -1836,13 +1830,13 @@
         <v>106936</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,13 +1851,13 @@
         <v>8561</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -1872,13 +1866,13 @@
         <v>31576</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
@@ -1887,13 +1881,13 @@
         <v>40137</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,13 +1955,13 @@
         <v>49303</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -1976,13 +1970,13 @@
         <v>122822</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>221</v>
@@ -1991,13 +1985,13 @@
         <v>172124</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,13 +2006,13 @@
         <v>30353</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>90</v>
@@ -2027,13 +2021,13 @@
         <v>63395</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>122</v>
@@ -2042,13 +2036,13 @@
         <v>93748</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2110,13 @@
         <v>16475</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -2131,13 +2125,13 @@
         <v>25771</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -2146,13 +2140,13 @@
         <v>42246</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2161,13 @@
         <v>12912</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -2182,13 +2176,13 @@
         <v>19636</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -2197,13 +2191,13 @@
         <v>32547</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2265,13 @@
         <v>95449</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>336</v>
@@ -2286,13 +2280,13 @@
         <v>225857</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>433</v>
@@ -2301,13 +2295,13 @@
         <v>321306</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2316,13 @@
         <v>51825</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -2337,13 +2331,13 @@
         <v>114607</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>223</v>
@@ -2352,13 +2346,13 @@
         <v>166432</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B24_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2015-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB674626-D03D-49DF-BA0E-64C0096EBC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A626E15-DE6B-4DA1-878B-C74A02B1BF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62E2D424-A50E-4EFC-BFB3-757D0406D19D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD9D8031-1F92-4CC6-ACF1-8B1092FCB968}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
-    <t>Población cuyos trastornos de ansiedad le limita en 2015 (Tasa respuesta: 4,19%)</t>
+    <t>Población cuyos trastornos de ansiedad le limita en 2016 (Tasa respuesta: 4,19%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>60,51%</t>
   </si>
   <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>72,5%</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>39,49%</t>
   </si>
   <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>64,72%</t>
   </si>
   <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>54,94%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
   </si>
   <si>
     <t>57,32%</t>
   </si>
   <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>35,28%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>45,06%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
   </si>
   <si>
     <t>42,68%</t>
   </si>
   <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,150 +198,156 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>59,88%</t>
+    <t>68,54%</t>
   </si>
   <si>
     <t>43,8%</t>
   </si>
   <si>
-    <t>11,01%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyos trastornos de ansiedad le limita en 2023 (Tasa respuesta: 7,51%)</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
   </si>
   <si>
     <t>77,32%</t>
   </si>
   <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyos trastornos de ansiedad le limita en 2023 (Tasa respuesta: 7,51%)</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
     <t>36,22%</t>
   </si>
   <si>
@@ -363,9 +369,6 @@
     <t>72,91%</t>
   </si>
   <si>
-    <t>65,96%</t>
-  </si>
-  <si>
     <t>59,81%</t>
   </si>
   <si>
@@ -388,9 +391,6 @@
   </si>
   <si>
     <t>49,39%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
   </si>
   <si>
     <t>27,79%</t>
@@ -925,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07083340-CD1A-4666-89B9-A7B5414B64CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6031BE85-7733-44B0-871E-6CA63A4E9408}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1676,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E016F6-D2C0-4A8E-AD4E-01901EC73468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB106A76-5FCF-4D33-A719-0DAB0FF77E19}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1821,7 +1821,7 @@
         <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>160</v>
@@ -1830,13 +1830,13 @@
         <v>106936</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,13 +1851,13 @@
         <v>8561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -1866,13 +1866,13 @@
         <v>31576</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
@@ -1881,13 +1881,13 @@
         <v>40137</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1955,13 @@
         <v>49303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -1970,13 +1970,13 @@
         <v>122822</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>221</v>
@@ -1985,13 +1985,13 @@
         <v>172124</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,13 +2006,13 @@
         <v>30353</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>90</v>
@@ -2021,7 +2021,7 @@
         <v>63395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>118</v>
